--- a/Code/Results/Cases/Case_3_170/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_170/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.998749482405362</v>
+        <v>1.034024354967587</v>
       </c>
       <c r="D2">
-        <v>1.017188564792318</v>
+        <v>1.036011125204094</v>
       </c>
       <c r="E2">
-        <v>1.01392055371688</v>
+        <v>1.04340624557467</v>
       </c>
       <c r="F2">
-        <v>1.021922977712139</v>
+        <v>1.054753321932304</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046186677378266</v>
+        <v>1.035491254270328</v>
       </c>
       <c r="J2">
-        <v>1.020967660678361</v>
+        <v>1.039145866203091</v>
       </c>
       <c r="K2">
-        <v>1.028413518774951</v>
+        <v>1.038806088669119</v>
       </c>
       <c r="L2">
-        <v>1.025189300748435</v>
+        <v>1.046180201262493</v>
       </c>
       <c r="M2">
-        <v>1.03308511123275</v>
+        <v>1.057495664146019</v>
       </c>
       <c r="N2">
-        <v>1.010594019296007</v>
+        <v>1.016961110875613</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004377034055558</v>
+        <v>1.035180448194092</v>
       </c>
       <c r="D3">
-        <v>1.021269604028542</v>
+        <v>1.036851503956108</v>
       </c>
       <c r="E3">
-        <v>1.018768792679197</v>
+        <v>1.044455552952765</v>
       </c>
       <c r="F3">
-        <v>1.027378111160469</v>
+        <v>1.055942122975875</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047916762585629</v>
+        <v>1.03574971395546</v>
       </c>
       <c r="J3">
-        <v>1.024749083762945</v>
+        <v>1.039943872388502</v>
       </c>
       <c r="K3">
-        <v>1.031637381462272</v>
+        <v>1.039455898773381</v>
       </c>
       <c r="L3">
-        <v>1.029167026069413</v>
+        <v>1.047039914152897</v>
       </c>
       <c r="M3">
-        <v>1.037672269888522</v>
+        <v>1.058496811906301</v>
       </c>
       <c r="N3">
-        <v>1.011882646009088</v>
+        <v>1.017229738305801</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007929636135922</v>
+        <v>1.035928238354883</v>
       </c>
       <c r="D4">
-        <v>1.023846827314069</v>
+        <v>1.037394718098104</v>
       </c>
       <c r="E4">
-        <v>1.021835655922021</v>
+        <v>1.045134629326813</v>
       </c>
       <c r="F4">
-        <v>1.030828776320911</v>
+        <v>1.056711536758896</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048994347442266</v>
+        <v>1.035915057723964</v>
       </c>
       <c r="J4">
-        <v>1.027132653276096</v>
+        <v>1.040459439401277</v>
       </c>
       <c r="K4">
-        <v>1.033665715463162</v>
+        <v>1.039875160806197</v>
       </c>
       <c r="L4">
-        <v>1.03167749752916</v>
+        <v>1.047595710871174</v>
       </c>
       <c r="M4">
-        <v>1.040568835634888</v>
+        <v>1.059144228296668</v>
       </c>
       <c r="N4">
-        <v>1.012694480134479</v>
+        <v>1.017403177081639</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009402813351023</v>
+        <v>1.03624254380014</v>
       </c>
       <c r="D5">
-        <v>1.024915676543149</v>
+        <v>1.037622949675225</v>
       </c>
       <c r="E5">
-        <v>1.02310884691515</v>
+        <v>1.045420138629737</v>
       </c>
       <c r="F5">
-        <v>1.03226128944065</v>
+        <v>1.057035042302833</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049437632361353</v>
+        <v>1.035984114149125</v>
       </c>
       <c r="J5">
-        <v>1.028120150483408</v>
+        <v>1.040675993702614</v>
       </c>
       <c r="K5">
-        <v>1.034505109230845</v>
+        <v>1.040051129498008</v>
       </c>
       <c r="L5">
-        <v>1.032718329892404</v>
+        <v>1.047829249893798</v>
       </c>
       <c r="M5">
-        <v>1.04177009536812</v>
+        <v>1.059416308752027</v>
       </c>
       <c r="N5">
-        <v>1.013030705841534</v>
+        <v>1.017475999619349</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009648999464456</v>
+        <v>1.03629531326385</v>
       </c>
       <c r="D6">
-        <v>1.025094300242532</v>
+        <v>1.037661262810096</v>
       </c>
       <c r="E6">
-        <v>1.023321695790893</v>
+        <v>1.045468078416783</v>
       </c>
       <c r="F6">
-        <v>1.032500773124484</v>
+        <v>1.057089362912627</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049511499493978</v>
+        <v>1.035995682399304</v>
       </c>
       <c r="J6">
-        <v>1.02828511854739</v>
+        <v>1.040712342993529</v>
       </c>
       <c r="K6">
-        <v>1.034645280148265</v>
+        <v>1.040080658472195</v>
       </c>
       <c r="L6">
-        <v>1.032892252714527</v>
+        <v>1.047868455225591</v>
       </c>
       <c r="M6">
-        <v>1.041970846486599</v>
+        <v>1.059461986802008</v>
       </c>
       <c r="N6">
-        <v>1.013086867817245</v>
+        <v>1.017488221503805</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007949399533895</v>
+        <v>1.035932438375445</v>
       </c>
       <c r="D7">
-        <v>1.023861166013685</v>
+        <v>1.037397768272485</v>
       </c>
       <c r="E7">
-        <v>1.021852730795134</v>
+        <v>1.045138444214758</v>
       </c>
       <c r="F7">
-        <v>1.030847987902864</v>
+        <v>1.05671585928185</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049000308494919</v>
+        <v>1.035915982243552</v>
       </c>
       <c r="J7">
-        <v>1.027145904700784</v>
+        <v>1.040462333756591</v>
       </c>
       <c r="K7">
-        <v>1.033676983173838</v>
+        <v>1.039877513243993</v>
       </c>
       <c r="L7">
-        <v>1.031691461659395</v>
+        <v>1.047598831893637</v>
       </c>
       <c r="M7">
-        <v>1.040584950703797</v>
+        <v>1.059147864215112</v>
       </c>
       <c r="N7">
-        <v>1.012698992467495</v>
+        <v>1.017404150497859</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000670300730484</v>
+        <v>1.034415120774112</v>
       </c>
       <c r="D8">
-        <v>1.01858127765387</v>
+        <v>1.036295252634752</v>
       </c>
       <c r="E8">
-        <v>1.01557402737915</v>
+        <v>1.043760842685931</v>
       </c>
       <c r="F8">
-        <v>1.02378346058101</v>
+        <v>1.055155046077198</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046780228316879</v>
+        <v>1.035578994725245</v>
       </c>
       <c r="J8">
-        <v>1.022259076841201</v>
+        <v>1.039415721368547</v>
       </c>
       <c r="K8">
-        <v>1.029515301286252</v>
+        <v>1.039025945437176</v>
       </c>
       <c r="L8">
-        <v>1.026547091370431</v>
+        <v>1.046470848109808</v>
       </c>
       <c r="M8">
-        <v>1.034650625816882</v>
+        <v>1.057834088563828</v>
       </c>
       <c r="N8">
-        <v>1.011034192577679</v>
+        <v>1.017051973762984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9871187924750084</v>
+        <v>1.031739211268269</v>
       </c>
       <c r="D9">
-        <v>1.00876309720899</v>
+        <v>1.034348129616061</v>
       </c>
       <c r="E9">
-        <v>1.003937879583283</v>
+        <v>1.041334103515173</v>
       </c>
       <c r="F9">
-        <v>1.010689476259619</v>
+        <v>1.052406031780915</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042532836572267</v>
+        <v>1.034970649330802</v>
       </c>
       <c r="J9">
-        <v>1.013134765602612</v>
+        <v>1.037565331010164</v>
       </c>
       <c r="K9">
-        <v>1.021715581402957</v>
+        <v>1.037516105440131</v>
       </c>
       <c r="L9">
-        <v>1.016967388899789</v>
+        <v>1.044479378384294</v>
       </c>
       <c r="M9">
-        <v>1.02361147258407</v>
+        <v>1.055516003649793</v>
       </c>
       <c r="N9">
-        <v>1.007922672808319</v>
+        <v>1.016428468663685</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9775290401015116</v>
+        <v>1.02995370197429</v>
       </c>
       <c r="D10">
-        <v>1.001829102986352</v>
+        <v>1.033047110955577</v>
       </c>
       <c r="E10">
-        <v>0.9957439463382075</v>
+        <v>1.039716752819831</v>
       </c>
       <c r="F10">
-        <v>1.001466953099413</v>
+        <v>1.050574194969744</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039453791180419</v>
+        <v>1.034555311417743</v>
       </c>
       <c r="J10">
-        <v>1.006663470166198</v>
+        <v>1.036327579067852</v>
       </c>
       <c r="K10">
-        <v>1.016165410760275</v>
+        <v>1.036503293136907</v>
       </c>
       <c r="L10">
-        <v>1.010190472707088</v>
+        <v>1.043149124223431</v>
       </c>
       <c r="M10">
-        <v>1.015809771672245</v>
+        <v>1.053968517244703</v>
       </c>
       <c r="N10">
-        <v>1.005714272387965</v>
+        <v>1.016010823218462</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9732277916637747</v>
+        <v>1.02918016372438</v>
       </c>
       <c r="D11">
-        <v>0.9987238099420591</v>
+        <v>1.032483055181078</v>
       </c>
       <c r="E11">
-        <v>0.9920794572034155</v>
+        <v>1.039016524382364</v>
       </c>
       <c r="F11">
-        <v>0.9973417400688465</v>
+        <v>1.049781174083657</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038056345686353</v>
+        <v>1.034373145446279</v>
       </c>
       <c r="J11">
-        <v>1.003758353624179</v>
+        <v>1.035790622764743</v>
       </c>
       <c r="K11">
-        <v>1.013669833535237</v>
+        <v>1.036063245790699</v>
       </c>
       <c r="L11">
-        <v>1.00715230528325</v>
+        <v>1.042572481084903</v>
       </c>
       <c r="M11">
-        <v>1.012313961998892</v>
+        <v>1.05329792928916</v>
       </c>
       <c r="N11">
-        <v>1.004722614295678</v>
+        <v>1.015829507266097</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9716061432681919</v>
+        <v>1.02889277504454</v>
       </c>
       <c r="D12">
-        <v>0.9975539135587073</v>
+        <v>1.032273433218811</v>
       </c>
       <c r="E12">
-        <v>0.9906995888554387</v>
+        <v>1.038756441635557</v>
       </c>
       <c r="F12">
-        <v>0.9957882557069171</v>
+        <v>1.049486635983442</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037527108030005</v>
+        <v>1.034305131815932</v>
       </c>
       <c r="J12">
-        <v>1.002662763928012</v>
+        <v>1.035591021870554</v>
       </c>
       <c r="K12">
-        <v>1.012728127249105</v>
+        <v>1.035899567734783</v>
       </c>
       <c r="L12">
-        <v>1.006007165831091</v>
+        <v>1.042358193894471</v>
       </c>
       <c r="M12">
-        <v>1.010996593386158</v>
+        <v>1.053048764373597</v>
       </c>
       <c r="N12">
-        <v>1.004348608704752</v>
+        <v>1.015762087186132</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9719551048065465</v>
+        <v>1.028954423734037</v>
       </c>
       <c r="D13">
-        <v>0.9978056219288719</v>
+        <v>1.03231840266944</v>
       </c>
       <c r="E13">
-        <v>0.9909964429175054</v>
+        <v>1.038812229683355</v>
       </c>
       <c r="F13">
-        <v>0.9961224663871768</v>
+        <v>1.049549814288825</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037641100116917</v>
+        <v>1.034319736770866</v>
       </c>
       <c r="J13">
-        <v>1.002898535809717</v>
+        <v>1.035633843807019</v>
       </c>
       <c r="K13">
-        <v>1.01293080818579</v>
+        <v>1.035934687419045</v>
       </c>
       <c r="L13">
-        <v>1.006253572487009</v>
+        <v>1.042404163595342</v>
       </c>
       <c r="M13">
-        <v>1.011280047752414</v>
+        <v>1.053102214673241</v>
       </c>
       <c r="N13">
-        <v>1.004429096095009</v>
+        <v>1.015776552250815</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9730942446304014</v>
+        <v>1.029156409364911</v>
       </c>
       <c r="D14">
-        <v>0.9986274476931317</v>
+        <v>1.032465729940154</v>
       </c>
       <c r="E14">
-        <v>0.9919657860489675</v>
+        <v>1.038995025596508</v>
       </c>
       <c r="F14">
-        <v>0.9972137694969353</v>
+        <v>1.049756826966906</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03801280925488</v>
+        <v>1.03436753054084</v>
       </c>
       <c r="J14">
-        <v>1.003668134701556</v>
+        <v>1.035774126786875</v>
       </c>
       <c r="K14">
-        <v>1.013592297752737</v>
+        <v>1.036049720702383</v>
       </c>
       <c r="L14">
-        <v>1.007057993316725</v>
+        <v>1.042554770007995</v>
       </c>
       <c r="M14">
-        <v>1.012205460146293</v>
+        <v>1.05327733485145</v>
       </c>
       <c r="N14">
-        <v>1.004691816411498</v>
+        <v>1.015823935756387</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9737928786931702</v>
+        <v>1.029280851088569</v>
       </c>
       <c r="D15">
-        <v>0.9991315900098865</v>
+        <v>1.032556489003824</v>
       </c>
       <c r="E15">
-        <v>0.9925605122704062</v>
+        <v>1.039107653919945</v>
       </c>
       <c r="F15">
-        <v>0.997883304691687</v>
+        <v>1.049884377604189</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038240468331341</v>
+        <v>1.034396931596588</v>
       </c>
       <c r="J15">
-        <v>1.004140091280938</v>
+        <v>1.035860539668329</v>
       </c>
       <c r="K15">
-        <v>1.013997883074585</v>
+        <v>1.036120566688712</v>
       </c>
       <c r="L15">
-        <v>1.007551387121389</v>
+        <v>1.042647550806207</v>
       </c>
       <c r="M15">
-        <v>1.012773099197723</v>
+        <v>1.053385221711159</v>
       </c>
       <c r="N15">
-        <v>1.004852926400879</v>
+        <v>1.01585312084783</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9778112299336352</v>
+        <v>1.030005030551358</v>
       </c>
       <c r="D16">
-        <v>1.002032940991963</v>
+        <v>1.033084530564723</v>
       </c>
       <c r="E16">
-        <v>0.9959845913446265</v>
+        <v>1.039763226592129</v>
       </c>
       <c r="F16">
-        <v>1.001737836842219</v>
+        <v>1.050626828758048</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039545139215869</v>
+        <v>1.034567352233212</v>
       </c>
       <c r="J16">
-        <v>1.006854017678767</v>
+        <v>1.036363193907419</v>
       </c>
       <c r="K16">
-        <v>1.016329016686208</v>
+        <v>1.036532466126108</v>
       </c>
       <c r="L16">
-        <v>1.010389833516518</v>
+        <v>1.043187380683798</v>
       </c>
       <c r="M16">
-        <v>1.016039199126378</v>
+        <v>1.05401301098667</v>
       </c>
       <c r="N16">
-        <v>1.005779311170037</v>
+        <v>1.016022846580872</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9802908988606448</v>
+        <v>1.030459180517072</v>
       </c>
       <c r="D17">
-        <v>1.003824671457604</v>
+        <v>1.033415567726822</v>
       </c>
       <c r="E17">
-        <v>0.9981004207517407</v>
+        <v>1.040174474754237</v>
       </c>
       <c r="F17">
-        <v>1.004119451012366</v>
+        <v>1.051092595061461</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04034598524542</v>
+        <v>1.034673630788843</v>
       </c>
       <c r="J17">
-        <v>1.008528120755912</v>
+        <v>1.036678226825677</v>
       </c>
       <c r="K17">
-        <v>1.017765971018642</v>
+        <v>1.036790439651962</v>
       </c>
       <c r="L17">
-        <v>1.012141838652434</v>
+        <v>1.043525831209049</v>
       </c>
       <c r="M17">
-        <v>1.018055634813089</v>
+        <v>1.05440666762268</v>
       </c>
       <c r="N17">
-        <v>1.006350698099419</v>
+        <v>1.016129184319308</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9817230054213356</v>
+        <v>1.030724039950788</v>
       </c>
       <c r="D18">
-        <v>1.004859908573227</v>
+        <v>1.033608588004105</v>
       </c>
       <c r="E18">
-        <v>0.9993233992301298</v>
+        <v>1.040414358092281</v>
       </c>
       <c r="F18">
-        <v>1.005495990281866</v>
+        <v>1.051364285791266</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040806948457969</v>
+        <v>1.03473539725734</v>
       </c>
       <c r="J18">
-        <v>1.009494732548168</v>
+        <v>1.036861883626236</v>
       </c>
       <c r="K18">
-        <v>1.018595277667254</v>
+        <v>1.036940767237895</v>
       </c>
       <c r="L18">
-        <v>1.013153821913845</v>
+        <v>1.043723182537233</v>
       </c>
       <c r="M18">
-        <v>1.019220525371793</v>
+        <v>1.054636231156671</v>
       </c>
       <c r="N18">
-        <v>1.006680586836092</v>
+        <v>1.016191163728905</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9822089475617962</v>
+        <v>1.030814343690579</v>
       </c>
       <c r="D19">
-        <v>1.005211256131974</v>
+        <v>1.033674391393331</v>
       </c>
       <c r="E19">
-        <v>0.99973854737861</v>
+        <v>1.040496153709862</v>
       </c>
       <c r="F19">
-        <v>1.00596325501545</v>
+        <v>1.051456928254902</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040963095708739</v>
+        <v>1.034756420037198</v>
       </c>
       <c r="J19">
-        <v>1.009822678649526</v>
+        <v>1.03692448949766</v>
       </c>
       <c r="K19">
-        <v>1.01887657470367</v>
+        <v>1.03699200065135</v>
       </c>
       <c r="L19">
-        <v>1.01349722769115</v>
+        <v>1.043790463899199</v>
       </c>
       <c r="M19">
-        <v>1.019615847281071</v>
+        <v>1.054714497990466</v>
       </c>
       <c r="N19">
-        <v>1.006792504923923</v>
+        <v>1.016212289379637</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9800263381879767</v>
+        <v>1.030410458525387</v>
       </c>
       <c r="D20">
-        <v>1.003633461421642</v>
+        <v>1.033380057619051</v>
       </c>
       <c r="E20">
-        <v>0.9978745739151974</v>
+        <v>1.040130350769527</v>
       </c>
       <c r="F20">
-        <v>1.003865240956645</v>
+        <v>1.051042620983287</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040260702464737</v>
+        <v>1.034662251278151</v>
       </c>
       <c r="J20">
-        <v>1.008349532746869</v>
+        <v>1.036644436770376</v>
       </c>
       <c r="K20">
-        <v>1.017612720267374</v>
+        <v>1.036762776433437</v>
       </c>
       <c r="L20">
-        <v>1.011954899619313</v>
+        <v>1.043489525001153</v>
       </c>
       <c r="M20">
-        <v>1.01784046356332</v>
+        <v>1.054364437142173</v>
       </c>
       <c r="N20">
-        <v>1.006289746856783</v>
+        <v>1.016117780004041</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9727594718625164</v>
+        <v>1.029096931361379</v>
       </c>
       <c r="D21">
-        <v>0.9983859031745159</v>
+        <v>1.032422348675445</v>
       </c>
       <c r="E21">
-        <v>0.9916808655902684</v>
+        <v>1.038941196397938</v>
       </c>
       <c r="F21">
-        <v>0.9968930049146608</v>
+        <v>1.049695866209095</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037903635169763</v>
+        <v>1.034353466104985</v>
       </c>
       <c r="J21">
-        <v>1.003441971205491</v>
+        <v>1.035732821133192</v>
       </c>
       <c r="K21">
-        <v>1.013397919775256</v>
+        <v>1.036015852480027</v>
       </c>
       <c r="L21">
-        <v>1.006821579359862</v>
+        <v>1.04251042283802</v>
       </c>
       <c r="M21">
-        <v>1.011933480323628</v>
+        <v>1.053225768505236</v>
       </c>
       <c r="N21">
-        <v>1.004614610951652</v>
+        <v>1.015809984464136</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9680508870257648</v>
+        <v>1.028270704279764</v>
       </c>
       <c r="D22">
-        <v>0.994990800867364</v>
+        <v>1.031819582455095</v>
       </c>
       <c r="E22">
-        <v>0.9876776749555094</v>
+        <v>1.03819360413121</v>
       </c>
       <c r="F22">
-        <v>0.9923858581161471</v>
+        <v>1.048849252956243</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036362553323565</v>
+        <v>1.034157300834834</v>
       </c>
       <c r="J22">
-        <v>1.000260348352748</v>
+        <v>1.035158775685642</v>
       </c>
       <c r="K22">
-        <v>1.010662148414698</v>
+        <v>1.035544930374143</v>
       </c>
       <c r="L22">
-        <v>1.003497256601598</v>
+        <v>1.041894265075078</v>
       </c>
       <c r="M22">
-        <v>1.008109676897474</v>
+        <v>1.052509386484384</v>
       </c>
       <c r="N22">
-        <v>1.003528449272027</v>
+        <v>1.015616048769609</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9705608115718919</v>
+        <v>1.028708737686856</v>
       </c>
       <c r="D23">
-        <v>0.9968000450177144</v>
+        <v>1.03213917883171</v>
       </c>
       <c r="E23">
-        <v>0.9898106067438276</v>
+        <v>1.038589910046197</v>
       </c>
       <c r="F23">
-        <v>0.9947873817934888</v>
+        <v>1.049298045378024</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037185298200141</v>
+        <v>1.034261483287893</v>
       </c>
       <c r="J23">
-        <v>1.001956458689127</v>
+        <v>1.035463171439524</v>
       </c>
       <c r="K23">
-        <v>1.012120873078653</v>
+        <v>1.035794698644047</v>
       </c>
       <c r="L23">
-        <v>1.005269094055214</v>
+        <v>1.042220955116886</v>
       </c>
       <c r="M23">
-        <v>1.01014758962917</v>
+        <v>1.052889197743301</v>
       </c>
       <c r="N23">
-        <v>1.004107488330952</v>
+        <v>1.015718896924855</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.980145925661977</v>
+        <v>1.03043247401482</v>
       </c>
       <c r="D24">
-        <v>1.003719891368681</v>
+        <v>1.033396103318411</v>
       </c>
       <c r="E24">
-        <v>0.9979766587433414</v>
+        <v>1.040150288470014</v>
       </c>
       <c r="F24">
-        <v>1.003980146422825</v>
+        <v>1.051065202064759</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04029925707009</v>
+        <v>1.034667393881236</v>
       </c>
       <c r="J24">
-        <v>1.00843025938863</v>
+        <v>1.036659705339952</v>
       </c>
       <c r="K24">
-        <v>1.017681994953355</v>
+        <v>1.036775276695845</v>
       </c>
       <c r="L24">
-        <v>1.012039399936419</v>
+        <v>1.043505930402294</v>
       </c>
       <c r="M24">
-        <v>1.017937724904579</v>
+        <v>1.054383519431772</v>
       </c>
       <c r="N24">
-        <v>1.006317298555657</v>
+        <v>1.016122933263998</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9907147310704626</v>
+        <v>1.032431268119112</v>
       </c>
       <c r="D25">
-        <v>1.011366468609397</v>
+        <v>1.0348520242585</v>
       </c>
       <c r="E25">
-        <v>1.007018985369912</v>
+        <v>1.04196138680138</v>
       </c>
       <c r="F25">
-        <v>1.01415686958469</v>
+        <v>1.053116565483038</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043672778754029</v>
+        <v>1.035129643602677</v>
       </c>
       <c r="J25">
-        <v>1.015558673752823</v>
+        <v>1.038044431264214</v>
       </c>
       <c r="K25">
-        <v>1.023790860540264</v>
+        <v>1.037907535743703</v>
       </c>
       <c r="L25">
-        <v>1.01950930909256</v>
+        <v>1.04499467766757</v>
       </c>
       <c r="M25">
-        <v>1.026539322684526</v>
+        <v>1.056115650017009</v>
       </c>
       <c r="N25">
-        <v>1.008749572101243</v>
+        <v>1.016590007183738</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_170/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_170/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034024354967587</v>
+        <v>0.9987494824053621</v>
       </c>
       <c r="D2">
-        <v>1.036011125204094</v>
+        <v>1.017188564792318</v>
       </c>
       <c r="E2">
-        <v>1.04340624557467</v>
+        <v>1.01392055371688</v>
       </c>
       <c r="F2">
-        <v>1.054753321932304</v>
+        <v>1.021922977712139</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035491254270328</v>
+        <v>1.046186677378266</v>
       </c>
       <c r="J2">
-        <v>1.039145866203091</v>
+        <v>1.020967660678361</v>
       </c>
       <c r="K2">
-        <v>1.038806088669119</v>
+        <v>1.028413518774952</v>
       </c>
       <c r="L2">
-        <v>1.046180201262493</v>
+        <v>1.025189300748435</v>
       </c>
       <c r="M2">
-        <v>1.057495664146019</v>
+        <v>1.03308511123275</v>
       </c>
       <c r="N2">
-        <v>1.016961110875613</v>
+        <v>1.010594019296007</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035180448194092</v>
+        <v>1.004377034055558</v>
       </c>
       <c r="D3">
-        <v>1.036851503956108</v>
+        <v>1.021269604028542</v>
       </c>
       <c r="E3">
-        <v>1.044455552952765</v>
+        <v>1.018768792679196</v>
       </c>
       <c r="F3">
-        <v>1.055942122975875</v>
+        <v>1.027378111160469</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03574971395546</v>
+        <v>1.047916762585629</v>
       </c>
       <c r="J3">
-        <v>1.039943872388502</v>
+        <v>1.024749083762945</v>
       </c>
       <c r="K3">
-        <v>1.039455898773381</v>
+        <v>1.031637381462272</v>
       </c>
       <c r="L3">
-        <v>1.047039914152897</v>
+        <v>1.029167026069412</v>
       </c>
       <c r="M3">
-        <v>1.058496811906301</v>
+        <v>1.037672269888522</v>
       </c>
       <c r="N3">
-        <v>1.017229738305801</v>
+        <v>1.011882646009088</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035928238354883</v>
+        <v>1.007929636135922</v>
       </c>
       <c r="D4">
-        <v>1.037394718098104</v>
+        <v>1.023846827314069</v>
       </c>
       <c r="E4">
-        <v>1.045134629326813</v>
+        <v>1.021835655922021</v>
       </c>
       <c r="F4">
-        <v>1.056711536758896</v>
+        <v>1.03082877632091</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035915057723964</v>
+        <v>1.048994347442266</v>
       </c>
       <c r="J4">
-        <v>1.040459439401277</v>
+        <v>1.027132653276096</v>
       </c>
       <c r="K4">
-        <v>1.039875160806197</v>
+        <v>1.033665715463162</v>
       </c>
       <c r="L4">
-        <v>1.047595710871174</v>
+        <v>1.03167749752916</v>
       </c>
       <c r="M4">
-        <v>1.059144228296668</v>
+        <v>1.040568835634888</v>
       </c>
       <c r="N4">
-        <v>1.017403177081639</v>
+        <v>1.012694480134479</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03624254380014</v>
+        <v>1.009402813351023</v>
       </c>
       <c r="D5">
-        <v>1.037622949675225</v>
+        <v>1.024915676543149</v>
       </c>
       <c r="E5">
-        <v>1.045420138629737</v>
+        <v>1.02310884691515</v>
       </c>
       <c r="F5">
-        <v>1.057035042302833</v>
+        <v>1.03226128944065</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035984114149125</v>
+        <v>1.049437632361353</v>
       </c>
       <c r="J5">
-        <v>1.040675993702614</v>
+        <v>1.028120150483407</v>
       </c>
       <c r="K5">
-        <v>1.040051129498008</v>
+        <v>1.034505109230845</v>
       </c>
       <c r="L5">
-        <v>1.047829249893798</v>
+        <v>1.032718329892404</v>
       </c>
       <c r="M5">
-        <v>1.059416308752027</v>
+        <v>1.041770095368119</v>
       </c>
       <c r="N5">
-        <v>1.017475999619349</v>
+        <v>1.013030705841534</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03629531326385</v>
+        <v>1.009648999464455</v>
       </c>
       <c r="D6">
-        <v>1.037661262810096</v>
+        <v>1.025094300242532</v>
       </c>
       <c r="E6">
-        <v>1.045468078416783</v>
+        <v>1.023321695790892</v>
       </c>
       <c r="F6">
-        <v>1.057089362912627</v>
+        <v>1.032500773124483</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035995682399304</v>
+        <v>1.049511499493978</v>
       </c>
       <c r="J6">
-        <v>1.040712342993529</v>
+        <v>1.02828511854739</v>
       </c>
       <c r="K6">
-        <v>1.040080658472195</v>
+        <v>1.034645280148265</v>
       </c>
       <c r="L6">
-        <v>1.047868455225591</v>
+        <v>1.032892252714527</v>
       </c>
       <c r="M6">
-        <v>1.059461986802008</v>
+        <v>1.041970846486599</v>
       </c>
       <c r="N6">
-        <v>1.017488221503805</v>
+        <v>1.013086867817244</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035932438375445</v>
+        <v>1.007949399533893</v>
       </c>
       <c r="D7">
-        <v>1.037397768272485</v>
+        <v>1.023861166013684</v>
       </c>
       <c r="E7">
-        <v>1.045138444214758</v>
+        <v>1.021852730795132</v>
       </c>
       <c r="F7">
-        <v>1.05671585928185</v>
+        <v>1.030847987902862</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035915982243552</v>
+        <v>1.049000308494918</v>
       </c>
       <c r="J7">
-        <v>1.040462333756591</v>
+        <v>1.027145904700783</v>
       </c>
       <c r="K7">
-        <v>1.039877513243993</v>
+        <v>1.033676983173837</v>
       </c>
       <c r="L7">
-        <v>1.047598831893637</v>
+        <v>1.031691461659393</v>
       </c>
       <c r="M7">
-        <v>1.059147864215112</v>
+        <v>1.040584950703795</v>
       </c>
       <c r="N7">
-        <v>1.017404150497859</v>
+        <v>1.012698992467495</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034415120774112</v>
+        <v>1.000670300730484</v>
       </c>
       <c r="D8">
-        <v>1.036295252634752</v>
+        <v>1.01858127765387</v>
       </c>
       <c r="E8">
-        <v>1.043760842685931</v>
+        <v>1.01557402737915</v>
       </c>
       <c r="F8">
-        <v>1.055155046077198</v>
+        <v>1.02378346058101</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035578994725245</v>
+        <v>1.046780228316879</v>
       </c>
       <c r="J8">
-        <v>1.039415721368547</v>
+        <v>1.022259076841201</v>
       </c>
       <c r="K8">
-        <v>1.039025945437176</v>
+        <v>1.029515301286252</v>
       </c>
       <c r="L8">
-        <v>1.046470848109808</v>
+        <v>1.026547091370431</v>
       </c>
       <c r="M8">
-        <v>1.057834088563828</v>
+        <v>1.034650625816882</v>
       </c>
       <c r="N8">
-        <v>1.017051973762984</v>
+        <v>1.01103419257768</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031739211268269</v>
+        <v>0.9871187924750079</v>
       </c>
       <c r="D9">
-        <v>1.034348129616061</v>
+        <v>1.00876309720899</v>
       </c>
       <c r="E9">
-        <v>1.041334103515173</v>
+        <v>1.003937879583283</v>
       </c>
       <c r="F9">
-        <v>1.052406031780915</v>
+        <v>1.010689476259619</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034970649330802</v>
+        <v>1.042532836572267</v>
       </c>
       <c r="J9">
-        <v>1.037565331010164</v>
+        <v>1.013134765602612</v>
       </c>
       <c r="K9">
-        <v>1.037516105440131</v>
+        <v>1.021715581402956</v>
       </c>
       <c r="L9">
-        <v>1.044479378384294</v>
+        <v>1.016967388899788</v>
       </c>
       <c r="M9">
-        <v>1.055516003649793</v>
+        <v>1.023611472584069</v>
       </c>
       <c r="N9">
-        <v>1.016428468663685</v>
+        <v>1.007922672808319</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02995370197429</v>
+        <v>0.9775290401015111</v>
       </c>
       <c r="D10">
-        <v>1.033047110955577</v>
+        <v>1.001829102986351</v>
       </c>
       <c r="E10">
-        <v>1.039716752819831</v>
+        <v>0.9957439463382068</v>
       </c>
       <c r="F10">
-        <v>1.050574194969744</v>
+        <v>1.001466953099412</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034555311417743</v>
+        <v>1.039453791180419</v>
       </c>
       <c r="J10">
-        <v>1.036327579067852</v>
+        <v>1.006663470166197</v>
       </c>
       <c r="K10">
-        <v>1.036503293136907</v>
+        <v>1.016165410760275</v>
       </c>
       <c r="L10">
-        <v>1.043149124223431</v>
+        <v>1.010190472707088</v>
       </c>
       <c r="M10">
-        <v>1.053968517244703</v>
+        <v>1.015809771672244</v>
       </c>
       <c r="N10">
-        <v>1.016010823218462</v>
+        <v>1.005714272387965</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02918016372438</v>
+        <v>0.9732277916637739</v>
       </c>
       <c r="D11">
-        <v>1.032483055181078</v>
+        <v>0.998723809942059</v>
       </c>
       <c r="E11">
-        <v>1.039016524382364</v>
+        <v>0.9920794572034149</v>
       </c>
       <c r="F11">
-        <v>1.049781174083657</v>
+        <v>0.9973417400688457</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034373145446279</v>
+        <v>1.038056345686353</v>
       </c>
       <c r="J11">
-        <v>1.035790622764743</v>
+        <v>1.003758353624179</v>
       </c>
       <c r="K11">
-        <v>1.036063245790699</v>
+        <v>1.013669833535237</v>
       </c>
       <c r="L11">
-        <v>1.042572481084903</v>
+        <v>1.007152305283249</v>
       </c>
       <c r="M11">
-        <v>1.05329792928916</v>
+        <v>1.012313961998891</v>
       </c>
       <c r="N11">
-        <v>1.015829507266097</v>
+        <v>1.004722614295678</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.02889277504454</v>
+        <v>0.9716061432681925</v>
       </c>
       <c r="D12">
-        <v>1.032273433218811</v>
+        <v>0.9975539135587075</v>
       </c>
       <c r="E12">
-        <v>1.038756441635557</v>
+        <v>0.9906995888554394</v>
       </c>
       <c r="F12">
-        <v>1.049486635983442</v>
+        <v>0.9957882557069174</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034305131815932</v>
+        <v>1.037527108030005</v>
       </c>
       <c r="J12">
-        <v>1.035591021870554</v>
+        <v>1.002662763928013</v>
       </c>
       <c r="K12">
-        <v>1.035899567734783</v>
+        <v>1.012728127249106</v>
       </c>
       <c r="L12">
-        <v>1.042358193894471</v>
+        <v>1.006007165831091</v>
       </c>
       <c r="M12">
-        <v>1.053048764373597</v>
+        <v>1.010996593386158</v>
       </c>
       <c r="N12">
-        <v>1.015762087186132</v>
+        <v>1.004348608704752</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028954423734037</v>
+        <v>0.9719551048065465</v>
       </c>
       <c r="D13">
-        <v>1.03231840266944</v>
+        <v>0.9978056219288718</v>
       </c>
       <c r="E13">
-        <v>1.038812229683355</v>
+        <v>0.9909964429175049</v>
       </c>
       <c r="F13">
-        <v>1.049549814288825</v>
+        <v>0.9961224663871768</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034319736770866</v>
+        <v>1.037641100116917</v>
       </c>
       <c r="J13">
-        <v>1.035633843807019</v>
+        <v>1.002898535809717</v>
       </c>
       <c r="K13">
-        <v>1.035934687419045</v>
+        <v>1.01293080818579</v>
       </c>
       <c r="L13">
-        <v>1.042404163595342</v>
+        <v>1.006253572487009</v>
       </c>
       <c r="M13">
-        <v>1.053102214673241</v>
+        <v>1.011280047752414</v>
       </c>
       <c r="N13">
-        <v>1.015776552250815</v>
+        <v>1.004429096095008</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029156409364911</v>
+        <v>0.9730942446304012</v>
       </c>
       <c r="D14">
-        <v>1.032465729940154</v>
+        <v>0.9986274476931314</v>
       </c>
       <c r="E14">
-        <v>1.038995025596508</v>
+        <v>0.9919657860489675</v>
       </c>
       <c r="F14">
-        <v>1.049756826966906</v>
+        <v>0.997213769496935</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03436753054084</v>
+        <v>1.03801280925488</v>
       </c>
       <c r="J14">
-        <v>1.035774126786875</v>
+        <v>1.003668134701556</v>
       </c>
       <c r="K14">
-        <v>1.036049720702383</v>
+        <v>1.013592297752737</v>
       </c>
       <c r="L14">
-        <v>1.042554770007995</v>
+        <v>1.007057993316725</v>
       </c>
       <c r="M14">
-        <v>1.05327733485145</v>
+        <v>1.012205460146293</v>
       </c>
       <c r="N14">
-        <v>1.015823935756387</v>
+        <v>1.004691816411498</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029280851088569</v>
+        <v>0.9737928786931713</v>
       </c>
       <c r="D15">
-        <v>1.032556489003824</v>
+        <v>0.9991315900098872</v>
       </c>
       <c r="E15">
-        <v>1.039107653919945</v>
+        <v>0.9925605122704069</v>
       </c>
       <c r="F15">
-        <v>1.049884377604189</v>
+        <v>0.9978833046916875</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034396931596588</v>
+        <v>1.038240468331342</v>
       </c>
       <c r="J15">
-        <v>1.035860539668329</v>
+        <v>1.004140091280939</v>
       </c>
       <c r="K15">
-        <v>1.036120566688712</v>
+        <v>1.013997883074586</v>
       </c>
       <c r="L15">
-        <v>1.042647550806207</v>
+        <v>1.007551387121389</v>
       </c>
       <c r="M15">
-        <v>1.053385221711159</v>
+        <v>1.012773099197724</v>
       </c>
       <c r="N15">
-        <v>1.01585312084783</v>
+        <v>1.004852926400879</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030005030551358</v>
+        <v>0.9778112299336356</v>
       </c>
       <c r="D16">
-        <v>1.033084530564723</v>
+        <v>1.002032940991963</v>
       </c>
       <c r="E16">
-        <v>1.039763226592129</v>
+        <v>0.9959845913446267</v>
       </c>
       <c r="F16">
-        <v>1.050626828758048</v>
+        <v>1.001737836842219</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034567352233212</v>
+        <v>1.039545139215869</v>
       </c>
       <c r="J16">
-        <v>1.036363193907419</v>
+        <v>1.006854017678767</v>
       </c>
       <c r="K16">
-        <v>1.036532466126108</v>
+        <v>1.016329016686208</v>
       </c>
       <c r="L16">
-        <v>1.043187380683798</v>
+        <v>1.010389833516518</v>
       </c>
       <c r="M16">
-        <v>1.05401301098667</v>
+        <v>1.016039199126378</v>
       </c>
       <c r="N16">
-        <v>1.016022846580872</v>
+        <v>1.005779311170037</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030459180517072</v>
+        <v>0.980290898860646</v>
       </c>
       <c r="D17">
-        <v>1.033415567726822</v>
+        <v>1.003824671457605</v>
       </c>
       <c r="E17">
-        <v>1.040174474754237</v>
+        <v>0.9981004207517415</v>
       </c>
       <c r="F17">
-        <v>1.051092595061461</v>
+        <v>1.004119451012367</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034673630788843</v>
+        <v>1.04034598524542</v>
       </c>
       <c r="J17">
-        <v>1.036678226825677</v>
+        <v>1.008528120755913</v>
       </c>
       <c r="K17">
-        <v>1.036790439651962</v>
+        <v>1.017765971018643</v>
       </c>
       <c r="L17">
-        <v>1.043525831209049</v>
+        <v>1.012141838652435</v>
       </c>
       <c r="M17">
-        <v>1.05440666762268</v>
+        <v>1.01805563481309</v>
       </c>
       <c r="N17">
-        <v>1.016129184319308</v>
+        <v>1.006350698099419</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030724039950788</v>
+        <v>0.9817230054213342</v>
       </c>
       <c r="D18">
-        <v>1.033608588004105</v>
+        <v>1.004859908573225</v>
       </c>
       <c r="E18">
-        <v>1.040414358092281</v>
+        <v>0.9993233992301286</v>
       </c>
       <c r="F18">
-        <v>1.051364285791266</v>
+        <v>1.005495990281864</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03473539725734</v>
+        <v>1.040806948457969</v>
       </c>
       <c r="J18">
-        <v>1.036861883626236</v>
+        <v>1.009494732548167</v>
       </c>
       <c r="K18">
-        <v>1.036940767237895</v>
+        <v>1.018595277667253</v>
       </c>
       <c r="L18">
-        <v>1.043723182537233</v>
+        <v>1.013153821913843</v>
       </c>
       <c r="M18">
-        <v>1.054636231156671</v>
+        <v>1.019220525371792</v>
       </c>
       <c r="N18">
-        <v>1.016191163728905</v>
+        <v>1.006680586836091</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030814343690579</v>
+        <v>0.9822089475617971</v>
       </c>
       <c r="D19">
-        <v>1.033674391393331</v>
+        <v>1.005211256131975</v>
       </c>
       <c r="E19">
-        <v>1.040496153709862</v>
+        <v>0.9997385473786108</v>
       </c>
       <c r="F19">
-        <v>1.051456928254902</v>
+        <v>1.005963255015451</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034756420037198</v>
+        <v>1.040963095708739</v>
       </c>
       <c r="J19">
-        <v>1.03692448949766</v>
+        <v>1.009822678649527</v>
       </c>
       <c r="K19">
-        <v>1.03699200065135</v>
+        <v>1.018876574703671</v>
       </c>
       <c r="L19">
-        <v>1.043790463899199</v>
+        <v>1.013497227691151</v>
       </c>
       <c r="M19">
-        <v>1.054714497990466</v>
+        <v>1.019615847281072</v>
       </c>
       <c r="N19">
-        <v>1.016212289379637</v>
+        <v>1.006792504923923</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030410458525387</v>
+        <v>0.9800263381879761</v>
       </c>
       <c r="D20">
-        <v>1.033380057619051</v>
+        <v>1.003633461421642</v>
       </c>
       <c r="E20">
-        <v>1.040130350769527</v>
+        <v>0.9978745739151965</v>
       </c>
       <c r="F20">
-        <v>1.051042620983287</v>
+        <v>1.003865240956644</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034662251278151</v>
+        <v>1.040260702464737</v>
       </c>
       <c r="J20">
-        <v>1.036644436770376</v>
+        <v>1.008349532746869</v>
       </c>
       <c r="K20">
-        <v>1.036762776433437</v>
+        <v>1.017612720267373</v>
       </c>
       <c r="L20">
-        <v>1.043489525001153</v>
+        <v>1.011954899619312</v>
       </c>
       <c r="M20">
-        <v>1.054364437142173</v>
+        <v>1.01784046356332</v>
       </c>
       <c r="N20">
-        <v>1.016117780004041</v>
+        <v>1.006289746856783</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029096931361379</v>
+        <v>0.9727594718625173</v>
       </c>
       <c r="D21">
-        <v>1.032422348675445</v>
+        <v>0.9983859031745167</v>
       </c>
       <c r="E21">
-        <v>1.038941196397938</v>
+        <v>0.9916808655902691</v>
       </c>
       <c r="F21">
-        <v>1.049695866209095</v>
+        <v>0.9968930049146617</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034353466104985</v>
+        <v>1.037903635169764</v>
       </c>
       <c r="J21">
-        <v>1.035732821133192</v>
+        <v>1.003441971205492</v>
       </c>
       <c r="K21">
-        <v>1.036015852480027</v>
+        <v>1.013397919775256</v>
       </c>
       <c r="L21">
-        <v>1.04251042283802</v>
+        <v>1.006821579359863</v>
       </c>
       <c r="M21">
-        <v>1.053225768505236</v>
+        <v>1.011933480323628</v>
       </c>
       <c r="N21">
-        <v>1.015809984464136</v>
+        <v>1.004614610951652</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028270704279764</v>
+        <v>0.9680508870257644</v>
       </c>
       <c r="D22">
-        <v>1.031819582455095</v>
+        <v>0.9949908008673635</v>
       </c>
       <c r="E22">
-        <v>1.03819360413121</v>
+        <v>0.9876776749555088</v>
       </c>
       <c r="F22">
-        <v>1.048849252956243</v>
+        <v>0.9923858581161461</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034157300834834</v>
+        <v>1.036362553323564</v>
       </c>
       <c r="J22">
-        <v>1.035158775685642</v>
+        <v>1.000260348352747</v>
       </c>
       <c r="K22">
-        <v>1.035544930374143</v>
+        <v>1.010662148414698</v>
       </c>
       <c r="L22">
-        <v>1.041894265075078</v>
+        <v>1.003497256601598</v>
       </c>
       <c r="M22">
-        <v>1.052509386484384</v>
+        <v>1.008109676897473</v>
       </c>
       <c r="N22">
-        <v>1.015616048769609</v>
+        <v>1.003528449272027</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028708737686856</v>
+        <v>0.9705608115718904</v>
       </c>
       <c r="D23">
-        <v>1.03213917883171</v>
+        <v>0.9968000450177132</v>
       </c>
       <c r="E23">
-        <v>1.038589910046197</v>
+        <v>0.9898106067438264</v>
       </c>
       <c r="F23">
-        <v>1.049298045378024</v>
+        <v>0.9947873817934874</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034261483287893</v>
+        <v>1.03718529820014</v>
       </c>
       <c r="J23">
-        <v>1.035463171439524</v>
+        <v>1.001956458689125</v>
       </c>
       <c r="K23">
-        <v>1.035794698644047</v>
+        <v>1.012120873078652</v>
       </c>
       <c r="L23">
-        <v>1.042220955116886</v>
+        <v>1.005269094055213</v>
       </c>
       <c r="M23">
-        <v>1.052889197743301</v>
+        <v>1.010147589629169</v>
       </c>
       <c r="N23">
-        <v>1.015718896924855</v>
+        <v>1.004107488330952</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03043247401482</v>
+        <v>0.9801459256619759</v>
       </c>
       <c r="D24">
-        <v>1.033396103318411</v>
+        <v>1.00371989136868</v>
       </c>
       <c r="E24">
-        <v>1.040150288470014</v>
+        <v>0.9979766587433404</v>
       </c>
       <c r="F24">
-        <v>1.051065202064759</v>
+        <v>1.003980146422824</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034667393881236</v>
+        <v>1.040299257070089</v>
       </c>
       <c r="J24">
-        <v>1.036659705339952</v>
+        <v>1.008430259388629</v>
       </c>
       <c r="K24">
-        <v>1.036775276695845</v>
+        <v>1.017681994953354</v>
       </c>
       <c r="L24">
-        <v>1.043505930402294</v>
+        <v>1.012039399936418</v>
       </c>
       <c r="M24">
-        <v>1.054383519431772</v>
+        <v>1.017937724904578</v>
       </c>
       <c r="N24">
-        <v>1.016122933263998</v>
+        <v>1.006317298555656</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032431268119112</v>
+        <v>0.990714731070463</v>
       </c>
       <c r="D25">
-        <v>1.0348520242585</v>
+        <v>1.011366468609397</v>
       </c>
       <c r="E25">
-        <v>1.04196138680138</v>
+        <v>1.007018985369912</v>
       </c>
       <c r="F25">
-        <v>1.053116565483038</v>
+        <v>1.014156869584691</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035129643602677</v>
+        <v>1.04367277875403</v>
       </c>
       <c r="J25">
-        <v>1.038044431264214</v>
+        <v>1.015558673752824</v>
       </c>
       <c r="K25">
-        <v>1.037907535743703</v>
+        <v>1.023790860540264</v>
       </c>
       <c r="L25">
-        <v>1.04499467766757</v>
+        <v>1.01950930909256</v>
       </c>
       <c r="M25">
-        <v>1.056115650017009</v>
+        <v>1.026539322684527</v>
       </c>
       <c r="N25">
-        <v>1.016590007183738</v>
+        <v>1.008749572101243</v>
       </c>
     </row>
   </sheetData>
